--- a/cypress/downloads/Export.xlsx
+++ b/cypress/downloads/Export.xlsx
@@ -12,36 +12,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17" count="22">
   <si>
     <t>CreatedAtUtc</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Hospitality</t>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>EmailConfirmed</t>
+  </si>
+  <si>
+    <t>IsDefaultAdmin</t>
+  </si>
+  <si>
+    <t>IsOnline</t>
+  </si>
+  <si>
+    <t>SelectedCompany</t>
+  </si>
+  <si>
+    <t>Administrator</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Military</t>
-  </si>
-  <si>
-    <t>Foundation</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Corporate</t>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Default Company, LLC.</t>
   </si>
 </sst>
 </file>
@@ -77,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -155,8 +176,162 @@
         <color rgb="FFE0E0E0"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1">
       <alignment horizontal="left" vertical="bottom" wrapText="0"/>
@@ -167,8 +342,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3">
       <alignment horizontal="general" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10">
+      <alignment horizontal="center" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11">
+      <alignment horizontal="center" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12">
+      <alignment horizontal="center" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" wrapText="0"/>
@@ -182,18 +387,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="general" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="7">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="8">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="9">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="10">
+      <alignment horizontal="center" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="11">
+      <alignment horizontal="center" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="12">
+      <alignment horizontal="center" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="13">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="14">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Gridcolumn1" xfId="1"/>
     <cellStyle name="Gridcolumn2" xfId="2"/>
     <cellStyle name="Gridcolumn3" xfId="3"/>
+    <cellStyle name="Gridcolumn4" xfId="4"/>
+    <cellStyle name="Gridcolumn5" xfId="5"/>
+    <cellStyle name="Gridcolumn6" xfId="6"/>
+    <cellStyle name="Gridcolumn7" xfId="7"/>
+    <cellStyle name="Gridcolumn8" xfId="8"/>
+    <cellStyle name="Gridcolumn9" xfId="9"/>
+    <cellStyle name="Gridcolumn10" xfId="10"/>
+    <cellStyle name="Gridcolumn11" xfId="11"/>
+    <cellStyle name="Gridcolumn12" xfId="12"/>
+    <cellStyle name="Gridcolumn13" xfId="13"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -206,85 +454,100 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="20.284285714285716" customWidth="1"/>
-    <col min="2" max="2" width="14.004285714285714" customWidth="1"/>
-    <col min="3" max="3" width="18.57428571428571" customWidth="1"/>
+    <col min="2" max="2" width="16.574285714285715" customWidth="1"/>
+    <col min="3" max="3" width="15.144285714285713" customWidth="1"/>
+    <col min="4" max="4" width="15.144285714285713" customWidth="1"/>
+    <col min="5" max="5" width="11.284285714285716" customWidth="1"/>
+    <col min="6" max="6" width="12.424285714285714" customWidth="1"/>
+    <col min="7" max="7" width="15.284285714285716" customWidth="1"/>
+    <col min="8" max="8" width="15.424285714285714" customWidth="1"/>
+    <col min="9" max="9" width="16.284285714285716" customWidth="1"/>
+    <col min="10" max="10" width="22.714285714285715" customWidth="1"/>
+    <col min="11" max="11" width="22.424285714285713" customWidth="1"/>
+    <col min="12" max="12" width="15.284285714285716" customWidth="1"/>
+    <col min="13" max="13" width="24.424285714285713" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s" s="5">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s" s="15">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="16">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" t="s" s="16">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="16">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="16">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="16">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="16">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="16">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="17">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="17">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="17">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="16">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:13">
       <c r="A2" t="n" s="2">
-        <v>45381.275034722225</v>
+        <v>45380.98336805555</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n" s="2">
-        <v>45381.275034722225</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n" s="2">
-        <v>45381.275034722225</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n" s="2">
-        <v>45381.275034722225</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n" s="2">
-        <v>45381.275034722225</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n" s="2">
-        <v>45381.275034722225</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s" s="4">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="J2" t="b" s="11">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s" s="14">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/Export.xlsx
+++ b/cypress/downloads/Export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18" count="31">
   <si>
     <t>CreatedAtUtc</t>
   </si>
@@ -53,16 +53,19 @@
     <t>SelectedCompany</t>
   </si>
   <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Default Company, LLC.</t>
+  </si>
+  <si>
     <t>Administrator</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Internal</t>
-  </si>
-  <si>
-    <t>Default Company, LLC.</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n" s="2">
-        <v>45380.98336805555</v>
+        <v>45620.552349537036</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>13</v>
@@ -538,15 +541,56 @@
         <v>15</v>
       </c>
       <c r="J2" t="b" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b" s="13">
         <v>0</v>
       </c>
       <c r="M2" t="s" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="n" s="2">
+        <v>45380.98336805555</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="J3" t="b" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b" s="12">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s" s="14">
         <v>16</v>
       </c>
     </row>

--- a/cypress/downloads/Export.xlsx
+++ b/cypress/downloads/Export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17" count="31">
   <si>
     <t>CreatedAtUtc</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>SelectedCompany</t>
-  </si>
-  <si>
-    <t>hola</t>
   </si>
   <si>
     <t/>
@@ -514,31 +511,31 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n" s="2">
-        <v>45620.552349537036</v>
+        <v>45620.678449074076</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C2" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s" s="10">
         <v>14</v>
-      </c>
-      <c r="D2" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s" s="10">
-        <v>15</v>
       </c>
       <c r="J2" t="b" s="11">
         <v>0</v>
@@ -550,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -558,28 +555,28 @@
         <v>45380.98336805555</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s" s="10">
         <v>14</v>
-      </c>
-      <c r="D3" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s" s="10">
-        <v>15</v>
       </c>
       <c r="J3" t="b" s="11">
         <v>1</v>
@@ -591,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
